--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F0010-9BD5-4962-A24B-18DCEA8D7348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB597F5-D621-4277-9DA5-6DEB30CAE2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRADAS" sheetId="1" r:id="rId1"/>
@@ -22,56 +22,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Forma de Pagamento</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Parcelado?</t>
+  </si>
+  <si>
+    <t>Total Parcelas</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mês </t>
+  </si>
   <si>
     <t>Dia</t>
   </si>
   <si>
-    <t>Mês</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
-    <t>Forma de Pagamento</t>
-  </si>
-  <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
-    <t>Parcelado?</t>
-  </si>
-  <si>
-    <t>Nº Parcela</t>
-  </si>
-  <si>
-    <t>Total Parcelas</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Gastos</t>
-  </si>
-  <si>
-    <t>Saldo</t>
+    <t>Numero de Parcelas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -99,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,42 +450,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -489,50 +507,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -557,19 +577,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB597F5-D621-4277-9DA5-6DEB30CAE2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C551A976-8D2C-4C95-B12B-ADEC056C33E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRADAS" sheetId="1" r:id="rId1"/>
@@ -24,30 +24,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mês </t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Forma de Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia </t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Parcelado?</t>
+  </si>
+  <si>
+    <t>Numero de Parcelas</t>
+  </si>
+  <si>
+    <t>Total Parcelas</t>
+  </si>
+  <si>
     <t>Mês</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Forma de Pagamento</t>
-  </si>
-  <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
-    <t>Parcelado?</t>
-  </si>
-  <si>
-    <t>Total Parcelas</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -55,21 +70,6 @@
   </si>
   <si>
     <t>Saldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mês </t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Numero de Parcelas</t>
   </si>
 </sst>
 </file>
@@ -452,39 +452,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -525,34 +525,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -577,19 +577,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C551A976-8D2C-4C95-B12B-ADEC056C33E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904D46C-BF0F-4144-BFCC-CA7E4A8F617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRADAS" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>Parcelado?</t>
-  </si>
-  <si>
-    <t>Numero de Parcelas</t>
-  </si>
-  <si>
-    <t>Total Parcelas</t>
+    <t>Parcelado</t>
+  </si>
+  <si>
+    <t>Numero  Parcelas</t>
+  </si>
+  <si>
+    <t>Valor Parcela</t>
   </si>
   <si>
     <t>Mês</t>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,6 +490,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904D46C-BF0F-4144-BFCC-CA7E4A8F617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBC58F-2EF1-4FE3-8C1F-B605AC072B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Numero  Parcelas</t>
   </si>
   <si>
-    <t>Valor Parcela</t>
-  </si>
-  <si>
     <t>Mês</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>Valor  Parcela</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -578,19 +578,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBC58F-2EF1-4FE3-8C1F-B605AC072B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDD2B1-E561-41C5-9786-68704235032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,6 +57,9 @@
     <t>Numero  Parcelas</t>
   </si>
   <si>
+    <t>Valor  Parcela</t>
+  </si>
+  <si>
     <t>Mês</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>Saldo</t>
-  </si>
-  <si>
-    <t>Valor  Parcela</t>
   </si>
 </sst>
 </file>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,9 +553,12 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -578,19 +581,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDD2B1-E561-41C5-9786-68704235032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CEAE9-72B0-45A5-878A-28E48C52ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRADAS" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +488,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,9 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CEAE9-72B0-45A5-878A-28E48C52ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B862D3E-8BD8-49DE-AADF-2264C8E56DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,11 +487,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
     </row>
   </sheetData>
@@ -509,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +557,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -1,101 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcon\ProjetoControleFinanceiro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B862D3E-8BD8-49DE-AADF-2264C8E56DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ENTRADAS" sheetId="1" r:id="rId1"/>
-    <sheet name="GASTOS" sheetId="2" r:id="rId2"/>
-    <sheet name="RESUMO" sheetId="3" r:id="rId3"/>
+    <sheet name="ENTRADAS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GASTOS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RESUMO" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mês </t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Forma de Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia </t>
-  </si>
-  <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
-    <t>Parcelado</t>
-  </si>
-  <si>
-    <t>Numero  Parcelas</t>
-  </si>
-  <si>
-    <t>Valor  Parcela</t>
-  </si>
-  <si>
-    <t>Mês</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Gastos</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,23 +56,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,151 +451,990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="2" min="2" max="4"/>
+    <col width="20.44140625" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="19.33203125" customWidth="1" style="2" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dia</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mês </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Forma de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="E4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Essencial/Indispensável</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
+      <c r="C6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Essencial/Indispensável</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Frelancer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Salário,Presente,Freelance,Outros"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PIX, Débito,Transferência Bancária"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col width="8.77734375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="18.21875" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="18.21875" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
+    <col width="17.5546875" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dia </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mês </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Valor Total</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Forma de Pagamento</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Parcelado</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Numero  Parcelas</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valor  Parcela</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fatura Itaú</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Essencial/Indispensável</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>450</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fatura Nubank</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Essencial/Indispensável</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Conforto/Estilo de Vida</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>350</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Conforto/Estilo de Vida</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>120</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Manutenção (1/10)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Manutenção (2/10)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Manutenção (3/10)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Manutenção (4/10)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Manutenção (5/10)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C11" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Manutenção (6/10)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="n">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C12" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Manutenção (7/10)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B13" t="n">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C13" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Manutenção (8/10)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J13" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Manutenção (9/10)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
         <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Manutenção (10/10)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Essencial Variável/Manutenção</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PIX, Débito, Crédito, Dinheiro"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mês</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Entradas</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Gastos</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>650</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
+      <c r="B3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E3" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1450</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32340" yWindow="1530" windowWidth="15375" windowHeight="7725" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRADAS" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,20 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -55,9 +47,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -456,18 +446,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="2" min="2" max="4"/>
-    <col width="20.44140625" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="9.44140625" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="19.33203125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" min="2" max="4"/>
+    <col width="20.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19.33203125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -507,93 +497,30 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4">
-      <c r="E4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
         <v>2026</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Salário</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Essencial/Indispensável</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>2100</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Salário</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Essencial/Indispensável</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="F2" t="n">
         <v>2000</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Frelancer</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Pix</t>
         </is>
@@ -618,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -626,14 +553,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.77734375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="9.44140625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="18.21875" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="10.109375" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="18.21875" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="17.5546875" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18.21875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="18.21875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="17.5546875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -690,26 +617,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2026</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fatura Itaú</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Essencial/Indispensável</t>
+          <t>Conforto/Estilo de Vida</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -722,49 +649,55 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2026</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fatura Nubank</t>
+          <t>Presente (1/3)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Essencial/Indispensável</t>
+          <t>Conforto/Estilo de Vida</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pix</t>
+          <t>Crédito</t>
         </is>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>116.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>2026</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Presente (2/3)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -781,22 +714,28 @@
         </is>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>116.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>2026</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Presente</t>
+          <t>Presente (3/3)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -805,395 +744,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pix</t>
+          <t>Crédito</t>
         </is>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Manutenção (1/10)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Manutenção (2/10)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Manutenção (3/10)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Manutenção (4/10)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Manutenção (5/10)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Manutenção (6/10)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Manutenção (7/10)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Manutenção (8/10)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Manutenção (9/10)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2026</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Manutenção (10/10)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Essencial Variável/Manutenção</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Crédito</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>145</v>
+      <c r="J5" t="n">
+        <v>116.67</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1249,41 +814,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>2026</v>
       </c>
       <c r="C2" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>650</v>
+        <v>236.67</v>
       </c>
       <c r="E2" t="n">
-        <v>1450</v>
+        <v>1763.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1920</v>
+        <v>116.67</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>-116.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>2026</v>
@@ -1292,146 +857,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1450</v>
+        <v>116.67</v>
       </c>
       <c r="E4" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-1450</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-1450</v>
+        <v>-116.67</v>
       </c>
     </row>
   </sheetData>

--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32340" yWindow="1530" windowWidth="15375" windowHeight="7725" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32340" yWindow="1530" windowWidth="15375" windowHeight="7725" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRADAS" sheetId="1" state="visible" r:id="rId1"/>
@@ -448,7 +448,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -627,7 +627,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Presente</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pix</t>
+          <t>Débito</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -659,7 +659,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Presente (1/3)</t>
+          <t>Shopping (1/3)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Presente (2/3)</t>
+          <t>Shopping (2/3)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Presente (3/3)</t>
+          <t>Shopping (3/3)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,7 +779,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
